--- a/Mifos Automation Excels/Client/4075-CREATEACTIVECLIENT-PERSON-ADD-CLIENTCHARGE-SP-PENALTY-CLOSECLIENT-PAYCLIENTCHARGE.xlsx
+++ b/Mifos Automation Excels/Client/4075-CREATEACTIVECLIENT-PERSON-ADD-CLIENTCHARGE-SP-PENALTY-CLOSECLIENT-PAYCLIENTCHARGE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>office</t>
   </si>
@@ -130,12 +130,6 @@
   </si>
   <si>
     <t>clickonsubmit2</t>
-  </si>
-  <si>
-    <t>error1</t>
-  </si>
-  <si>
-    <t>field is required</t>
   </si>
   <si>
     <t>Client charge-specified due date-Penalty(US Dollar)</t>
@@ -148,7 +142,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -162,11 +156,6 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -202,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -226,8 +215,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,10 +708,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -732,16 +719,7 @@
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -751,7 +729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -774,7 +752,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
